--- a/WhyCompare Page list.xlsx
+++ b/WhyCompare Page list.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreamdg52\Documents\GitHub\Whycompare\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="14175" windowHeight="7875" tabRatio="450"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="150">
   <si>
     <t>Landing Page</t>
   </si>
@@ -466,13 +471,16 @@
   </si>
   <si>
     <t>Total  Pages</t>
+  </si>
+  <si>
+    <t>some changes done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,7 +615,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -648,77 +656,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,6 +738,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -773,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,9 +824,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,6 +859,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1014,14 +1035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="3" width="28.42578125" style="1" customWidth="1"/>
@@ -1034,7 +1055,7 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -1054,31 +1075,31 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="15">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1086,15 +1107,15 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1102,655 +1123,655 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="27">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="27">
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="27">
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="33">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="27">
+      <c r="D8" s="34"/>
+      <c r="E8" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="27">
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="27">
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="27">
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33">
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="27">
+      <c r="D14" s="34"/>
+      <c r="E14" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="27">
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="27">
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="27">
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="27">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="27">
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="33">
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="35" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="27">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="18">
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="18">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="18">
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="18">
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18">
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="18">
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="18" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="18">
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="18" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="18">
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="18" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="18">
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="18" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="33">
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="35" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="18">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="18" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="18">
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="18" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="18">
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="18" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="18">
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="18">
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="18" t="s">
+      <c r="D37" s="19"/>
+      <c r="E37" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="18">
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="18" t="s">
+      <c r="D38" s="19"/>
+      <c r="E38" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="33">
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="35" t="s">
+      <c r="D39" s="34"/>
+      <c r="E39" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="18">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" ht="30">
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" ht="30">
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" ht="30">
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" ht="30">
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="33">
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="35" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="1:7" ht="30">
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" spans="1:7" ht="30">
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -1759,15 +1780,15 @@
       <c r="F48" s="9"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="30">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -1776,31 +1797,31 @@
       <c r="F49" s="9"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="33">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="35" t="s">
+      <c r="D50" s="34"/>
+      <c r="E50" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -1808,17 +1829,17 @@
       </c>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:8" ht="30">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -1826,15 +1847,15 @@
       </c>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:8" ht="30">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>103</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -1842,31 +1863,31 @@
       </c>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>53</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>105</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:8" ht="30">
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>104</v>
       </c>
       <c r="E55" s="9" t="s">
@@ -1875,31 +1896,31 @@
       <c r="F55" s="9"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="33">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="35" t="s">
+      <c r="D56" s="34"/>
+      <c r="E56" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="21" t="s">
         <v>106</v>
       </c>
       <c r="E57" s="9" t="s">
@@ -1907,17 +1928,17 @@
       </c>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="30">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>57</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>73</v>
       </c>
       <c r="E58" s="9" t="s">
@@ -1925,15 +1946,15 @@
       </c>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="30">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="21" t="s">
         <v>75</v>
       </c>
       <c r="E59" s="9" t="s">
@@ -1941,15 +1962,15 @@
       </c>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="30">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>59</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E60" s="9" t="s">
@@ -1957,15 +1978,15 @@
       </c>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>77</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -1973,15 +1994,15 @@
       </c>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -1989,15 +2010,15 @@
       </c>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="30">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="25" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -2005,15 +2026,15 @@
       </c>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="24" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E64" s="9" t="s">
@@ -2021,31 +2042,31 @@
       </c>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="33">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="32">
         <v>64</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="36" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="35" t="s">
+      <c r="D65" s="36"/>
+      <c r="E65" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>65</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="24" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>101</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -2053,17 +2074,17 @@
       </c>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>126</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -2071,15 +2092,15 @@
       </c>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" ht="30">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>67</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="24" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>128</v>
       </c>
       <c r="E68" s="9" t="s">
@@ -2087,15 +2108,15 @@
       </c>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="1:6" ht="30">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="24" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>129</v>
       </c>
       <c r="E69" s="9" t="s">
@@ -2103,15 +2124,15 @@
       </c>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:6" ht="30">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>69</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="24" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>128</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -2119,15 +2140,15 @@
       </c>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:6" ht="45">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="21" t="s">
         <v>130</v>
       </c>
       <c r="E71" s="9" t="s">
@@ -2135,15 +2156,15 @@
       </c>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:6" ht="45">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>71</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="24" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>131</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -2151,47 +2172,47 @@
       </c>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="33">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
-      <c r="B73" s="34"/>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="33"/>
+      <c r="C73" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" s="35" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>73</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="24" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="1:6" ht="60">
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="21" t="s">
         <v>87</v>
       </c>
       <c r="E75" s="9" t="s">
@@ -2199,15 +2220,15 @@
       </c>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6" ht="45">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>75</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="26" t="s">
+      <c r="B76" s="20"/>
+      <c r="C76" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="9" t="s">
@@ -2215,15 +2236,15 @@
       </c>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="1:6" ht="60">
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -2231,15 +2252,15 @@
       </c>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="1:6" ht="45">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>77</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="24" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="21" t="s">
         <v>91</v>
       </c>
       <c r="E78" s="9" t="s">
@@ -2247,15 +2268,15 @@
       </c>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="1:6" ht="45">
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="24" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="21" t="s">
         <v>90</v>
       </c>
       <c r="E79" s="9" t="s">
@@ -2263,15 +2284,15 @@
       </c>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:6" ht="30">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>79</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="24" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="21" t="s">
         <v>92</v>
       </c>
       <c r="E80" s="9" t="s">
@@ -2279,63 +2300,63 @@
       </c>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="22"/>
+      <c r="D81" s="21"/>
       <c r="E81" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>81</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="23"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="33">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="32">
         <v>82</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="33"/>
-    </row>
-    <row r="84" spans="1:6" ht="30">
+      <c r="C83" s="33"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>83</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="21" t="s">
         <v>120</v>
       </c>
       <c r="E84" s="9" t="s">
@@ -2343,15 +2364,15 @@
       </c>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>84</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="20"/>
+      <c r="C85" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="21" t="s">
         <v>122</v>
       </c>
       <c r="E85" s="9" t="s">
@@ -2359,17 +2380,17 @@
       </c>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:6" ht="30">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>85</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="21" t="s">
         <v>117</v>
       </c>
       <c r="E86" s="9" t="s">
@@ -2377,15 +2398,15 @@
       </c>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:6" ht="30">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>86</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="25"/>
+      <c r="C87" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E87" s="9" t="s">
@@ -2393,15 +2414,15 @@
       </c>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:6" ht="30">
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>87</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>111</v>
       </c>
       <c r="E88" s="9" t="s">
@@ -2409,57 +2430,57 @@
       </c>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="33">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="32">
         <v>88</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34" t="s">
+      <c r="B89" s="33"/>
+      <c r="C89" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" s="33"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="33">
+      <c r="D89" s="36"/>
+      <c r="E89" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="32">
         <v>89</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" s="33"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="33">
+      <c r="C90" s="33"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="32"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="32">
         <v>90</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="33"/>
-    </row>
-    <row r="92" spans="1:6" ht="30">
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" s="32"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>91</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22" t="s">
+      <c r="C92" s="20"/>
+      <c r="D92" s="21" t="s">
         <v>109</v>
       </c>
       <c r="E92" s="9" t="s">
@@ -2467,15 +2488,15 @@
       </c>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>92</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="22" t="s">
+      <c r="C93" s="20"/>
+      <c r="D93" s="21" t="s">
         <v>113</v>
       </c>
       <c r="E93" s="9" t="s">
@@ -2483,43 +2504,43 @@
       </c>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="33">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="32">
         <v>93</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="34"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F94" s="33"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="33">
+      <c r="C94" s="33"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" s="32"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="32">
         <v>94</v>
       </c>
-      <c r="B95" s="34" t="s">
+      <c r="B95" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" s="33"/>
-    </row>
-    <row r="96" spans="1:6" ht="30">
+      <c r="C95" s="33"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" s="32"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>95</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22" t="s">
+      <c r="C96" s="20"/>
+      <c r="D96" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E96" s="9" t="s">
@@ -2527,357 +2548,357 @@
       </c>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="33">
-        <v>97</v>
-      </c>
-      <c r="B98" s="34" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="32">
+        <v>97</v>
+      </c>
+      <c r="B98" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F98" s="33"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="33">
+      <c r="C98" s="33"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="32"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="32">
         <v>98</v>
       </c>
-      <c r="B99" s="34" t="s">
+      <c r="B99" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="34"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F99" s="33"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="33">
+      <c r="C99" s="33"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="32">
         <v>99</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F100" s="33"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="33">
+      <c r="C100" s="33"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F100" s="32"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="32">
         <v>100</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F101" s="33"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="33">
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" s="32"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="32">
         <v>101</v>
       </c>
-      <c r="B102" s="34" t="s">
+      <c r="B102" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F102" s="33"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="33">
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="32"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="32">
         <v>102</v>
       </c>
-      <c r="B103" s="34" t="s">
+      <c r="B103" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F103" s="33"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="33">
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" s="32"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="32">
         <v>103</v>
       </c>
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F104" s="33"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="33">
+      <c r="C104" s="33"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="32"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="32">
         <v>104</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F105" s="33"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="33">
+      <c r="C105" s="33"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" s="32"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="32">
         <v>105</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="34"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F106" s="33"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="33">
+      <c r="C106" s="33"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="32"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="32">
         <v>106</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F107" s="35"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="33">
+      <c r="C107" s="33"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="34"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="32">
         <v>107</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F108" s="35"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="33">
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F108" s="34"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="32">
         <v>108</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="34"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" s="35"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="33">
+      <c r="C109" s="33"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" s="34"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="32">
         <v>109</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F110" s="35"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="33">
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" s="34"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="32">
         <v>110</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F111" s="33"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="33">
+      <c r="C111" s="33"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" s="32"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="32">
         <v>111</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F112" s="35"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="33">
+      <c r="C112" s="33"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F112" s="34"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="32">
         <v>112</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F113" s="35"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="33">
+      <c r="C113" s="33"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F113" s="34"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="32">
         <v>113</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="34"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F114" s="35"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="33">
+      <c r="C114" s="33"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" s="34"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="32">
         <v>114</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F115" s="35"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="33">
+      <c r="C115" s="33"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" s="34"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="32">
         <v>115</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="34"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F116" s="33"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="33">
+      <c r="C116" s="33"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" s="32"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="32">
         <v>116</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" s="33"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="33">
+      <c r="C117" s="33"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F117" s="32"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="32">
         <v>117</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C118" s="34"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F118" s="33"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="33">
+      <c r="C118" s="33"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" s="32"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="32">
         <v>118</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F119" s="33"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="33">
+      <c r="C119" s="33"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F119" s="32"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="32">
         <v>119</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C120" s="34"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F120" s="33"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="33">
+      <c r="C120" s="33"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" s="32"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="32">
         <v>120</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F121" s="33"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="C121" s="33"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F121" s="32"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -2885,8 +2906,8 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B124" s="14" t="s">
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="37" t="s">
         <v>148</v>
       </c>
       <c r="C124" s="11"/>
@@ -2894,8 +2915,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
-      <c r="B125" s="14"/>
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B125" s="37"/>
       <c r="C125" s="13" t="s">
         <v>142</v>
       </c>
@@ -2903,8 +2924,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75">
-      <c r="B126" s="14"/>
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" s="37"/>
       <c r="C126" s="13" t="s">
         <v>143</v>
       </c>
@@ -2912,8 +2933,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
-      <c r="B127" s="14"/>
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="37"/>
       <c r="C127" s="13" t="s">
         <v>144</v>
       </c>
@@ -2921,8 +2942,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
-      <c r="B128" s="14"/>
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="37"/>
       <c r="C128" s="13" t="s">
         <v>145</v>
       </c>
@@ -2930,8 +2951,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="15.75">
-      <c r="B129" s="14"/>
+    <row r="129" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B129" s="37"/>
       <c r="C129" s="13" t="s">
         <v>146</v>
       </c>
@@ -2939,8 +2960,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="15.75">
-      <c r="B130" s="14"/>
+    <row r="130" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="37"/>
       <c r="C130" s="13" t="s">
         <v>147</v>
       </c>
@@ -2948,10 +2969,48 @@
         <v>40</v>
       </c>
     </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="38"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="38"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="38"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="38"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F121"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B124:B130"/>
+    <mergeCell ref="B138:D144"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1"/>
@@ -2999,24 +3058,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
